--- a/fr/fr-verb.xlsx
+++ b/fr/fr-verb.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13960" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="13960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="être" sheetId="2" r:id="rId1"/>
     <sheet name="pair" sheetId="1" r:id="rId2"/>
+    <sheet name="mouth" sheetId="6" r:id="rId3"/>
+    <sheet name="leg" sheetId="3" r:id="rId4"/>
+    <sheet name="hand" sheetId="4" r:id="rId5"/>
+    <sheet name="sense" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +32,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
   <si>
     <t>arriver</t>
   </si>
@@ -94,6 +104,162 @@
   </si>
   <si>
     <t>laisser</t>
+  </si>
+  <si>
+    <t>avouer</t>
+  </si>
+  <si>
+    <t>admit</t>
+  </si>
+  <si>
+    <t>consentir</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>crier</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>discuter</t>
+  </si>
+  <si>
+    <t>discuss</t>
+  </si>
+  <si>
+    <t>nier</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>exprimer</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>rire</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>ordonner</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>mentir</t>
+  </si>
+  <si>
+    <t>lie</t>
+  </si>
+  <si>
+    <t>proposer</t>
+  </si>
+  <si>
+    <t>propose</t>
+  </si>
+  <si>
+    <t>convaincre</t>
+  </si>
+  <si>
+    <t>persuade</t>
+  </si>
+  <si>
+    <t>répondre</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>dire</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>suggérer</t>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>sourire</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>confesser</t>
+  </si>
+  <si>
+    <t>confess</t>
+  </si>
+  <si>
+    <t>parler</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>pleurer</t>
+  </si>
+  <si>
+    <t>weep</t>
+  </si>
+  <si>
+    <t>manger</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>boire</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>marcher</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>danser</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>sauter</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>avancer</t>
+  </si>
+  <si>
+    <t>marche forward</t>
+  </si>
+  <si>
+    <t>reculer</t>
+  </si>
+  <si>
+    <t>walk backwards</t>
+  </si>
+  <si>
+    <t>courir</t>
+  </si>
+  <si>
+    <t>run</t>
   </si>
 </sst>
 </file>
@@ -716,12 +882,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1259,10 +1434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1271,44 +1446,52 @@
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1320,71 +1503,437 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="11.4615384615385" customWidth="1"/>
+    <col min="2" max="2" width="11.6923076923077" customWidth="1"/>
+    <col min="3" max="3" width="9.69230769230769" customWidth="1"/>
+    <col min="4" max="4" width="9.23076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B11">
+    <sortCondition ref="B11"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="16.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/fr/fr-verb.xlsx
+++ b/fr/fr-verb.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13960" activeTab="2"/>
+    <workbookView windowWidth="29040" windowHeight="13940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="être" sheetId="2" r:id="rId1"/>
     <sheet name="pair" sheetId="1" r:id="rId2"/>
-    <sheet name="mouth" sheetId="6" r:id="rId3"/>
-    <sheet name="leg" sheetId="3" r:id="rId4"/>
-    <sheet name="hand" sheetId="4" r:id="rId5"/>
-    <sheet name="sense" sheetId="5" r:id="rId6"/>
+    <sheet name="daily" sheetId="7" r:id="rId3"/>
+    <sheet name="mouth" sheetId="6" r:id="rId4"/>
+    <sheet name="leg" sheetId="3" r:id="rId5"/>
+    <sheet name="hand" sheetId="4" r:id="rId6"/>
+    <sheet name="sense" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>French</t>
   </si>
@@ -882,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,9 +891,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1458,7 +1456,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1588,10 +1586,41 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1646,7 +1675,7 @@
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1665,10 +1694,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1721,10 +1750,10 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1743,10 +1772,10 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1759,28 +1788,28 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:B11">
@@ -1791,7 +1820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D8"/>
@@ -1827,10 +1856,10 @@
       <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1859,7 +1888,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1867,12 +1896,12 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1880,7 +1909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D1"/>
@@ -1911,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D1"/>

--- a/fr/fr-verb.xlsx
+++ b/fr/fr-verb.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>French</t>
   </si>
@@ -107,6 +107,54 @@
     <t>laisser</t>
   </si>
   <si>
+    <t>se lever</t>
+  </si>
+  <si>
+    <t>get up</t>
+  </si>
+  <si>
+    <t>s'endormir</t>
+  </si>
+  <si>
+    <t>fall asleep</t>
+  </si>
+  <si>
+    <t>dormir</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>se réveiller</t>
+  </si>
+  <si>
+    <t>wake up</t>
+  </si>
+  <si>
+    <t>manger</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>boire</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>coucher</t>
+  </si>
+  <si>
+    <t>go bed</t>
+  </si>
+  <si>
+    <t>nettoyer</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>avouer</t>
   </si>
   <si>
@@ -213,18 +261,6 @@
   </si>
   <si>
     <t>weep</t>
-  </si>
-  <si>
-    <t>manger</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>boire</t>
-  </si>
-  <si>
-    <t>drink</t>
   </si>
   <si>
     <t>marcher</t>
@@ -1586,13 +1622,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="13.3076923076923" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1606,6 +1646,70 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1619,8 +1723,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1653,147 +1757,139 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3"/>
@@ -1851,48 +1947,48 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/fr/fr-verb.xlsx
+++ b/fr/fr-verb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940" activeTab="2"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="être" sheetId="2" r:id="rId1"/>
@@ -38,39 +38,39 @@
     <t>French</t>
   </si>
   <si>
+    <t>arriver</t>
+  </si>
+  <si>
+    <t>partir</t>
+  </si>
+  <si>
+    <t>descendre</t>
+  </si>
+  <si>
+    <t>monter</t>
+  </si>
+  <si>
+    <t>venir</t>
+  </si>
+  <si>
+    <t>tomber</t>
+  </si>
+  <si>
+    <t>entrer</t>
+  </si>
+  <si>
+    <t>sortir</t>
+  </si>
+  <si>
+    <t>naître</t>
+  </si>
+  <si>
+    <t>morir</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>arriver</t>
-  </si>
-  <si>
-    <t>partir</t>
-  </si>
-  <si>
-    <t>descendre</t>
-  </si>
-  <si>
-    <t>monter</t>
-  </si>
-  <si>
-    <t>venir</t>
-  </si>
-  <si>
-    <t>tomber</t>
-  </si>
-  <si>
-    <t>entrer</t>
-  </si>
-  <si>
-    <t>sortir</t>
-  </si>
-  <si>
-    <t>naître</t>
-  </si>
-  <si>
-    <t>morir</t>
-  </si>
-  <si>
     <t>acheter</t>
   </si>
   <si>
@@ -284,13 +284,13 @@
     <t>avancer</t>
   </si>
   <si>
-    <t>marche forward</t>
+    <t>walk forward</t>
   </si>
   <si>
     <t>reculer</t>
   </si>
   <si>
-    <t>walk backwards</t>
+    <t>walk backward</t>
   </si>
   <si>
     <t>courir</t>
@@ -1468,64 +1468,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.2307692307692" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1541,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="C1" sqref="C1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1550,13 +1551,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1624,8 +1625,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1639,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1724,7 +1725,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1740,19 +1741,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1921,14 +1922,14 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.3846153846154" customWidth="1"/>
+    <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1936,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2021,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2052,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
